--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/20/seed1/result_data_RandomForest.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.1703</v>
+        <v>-12.368</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.4347</v>
+        <v>-12.0128</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -553,13 +553,13 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.1933</v>
+        <v>-13.3205</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.5853</v>
+        <v>15.6348</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.3804</v>
+        <v>-13.0234</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -627,7 +627,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.76159999999999</v>
+        <v>16.83919999999999</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.66280000000001</v>
+        <v>17.84680000000001</v>
       </c>
     </row>
     <row r="13">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.38379999999999</v>
+        <v>16.45610000000001</v>
       </c>
     </row>
     <row r="16">
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.3062</v>
+        <v>-14.46969999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -774,13 +774,13 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.40559999999999</v>
+        <v>-12.16129999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.91339999999999</v>
+        <v>15.97009999999999</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.2069</v>
+        <v>-13.2772</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>17.12869999999999</v>
+        <v>17.0491</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>17.1404</v>
+        <v>17.07859999999999</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.16039999999998</v>
+        <v>16.21039999999999</v>
       </c>
     </row>
     <row r="24">
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.66759999999999</v>
+        <v>-12.2666</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,13 +927,13 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.33820000000001</v>
+        <v>-11.4962</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.15310000000001</v>
+        <v>17.38000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.55869999999999</v>
+        <v>-12.44519999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.2175</v>
+        <v>-12.26060000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.2162</v>
+        <v>17.21330000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.533</v>
+        <v>-12.428</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.5794</v>
+        <v>16.50699999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.4158</v>
+        <v>17.41090000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.78889999999999</v>
+        <v>16.74399999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.6422</v>
+        <v>16.5795</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.58279999999999</v>
+        <v>-14.67149999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.6569</v>
+        <v>16.54970000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.5506</v>
+        <v>16.57229999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.3868</v>
+        <v>-11.5498</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.46220000000001</v>
+        <v>17.37270000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.1593</v>
+        <v>-11.289</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,13 +1403,13 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.2592</v>
+        <v>-14.27999999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.8016</v>
+        <v>16.8374</v>
       </c>
     </row>
     <row r="58">
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.9675</v>
+        <v>-13.0107</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.39789999999999</v>
+        <v>-14.304</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.46100000000001</v>
+        <v>17.41800000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1556,13 +1556,13 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.04500000000001</v>
+        <v>-11.1899</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.10980000000002</v>
+        <v>17.23780000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.07400000000002</v>
+        <v>17.11900000000002</v>
       </c>
     </row>
     <row r="68">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.91290000000001</v>
+        <v>-11.7114</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-11.9327</v>
+        <v>-11.97230000000001</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.213</v>
+        <v>-12.35</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.58250000000001</v>
+        <v>18.50190000000001</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.62599999999999</v>
+        <v>16.62999999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.22759999999999</v>
+        <v>16.2983</v>
       </c>
     </row>
     <row r="88">
@@ -1998,13 +1998,13 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.7807</v>
+        <v>-10.9842</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.29890000000001</v>
+        <v>18.06640000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.68899999999999</v>
+        <v>16.3821</v>
       </c>
     </row>
     <row r="98">
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.62679999999999</v>
+        <v>-12.6679</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
